--- a/legislator/property/output/tmp8fef1_丁守中_2011-11-22_財產申報表.xlsx
+++ b/legislator/property/output/tmp8fef1_丁守中_2011-11-22_財產申報表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="139">
   <si>
     <t>土地坐落</t>
   </si>
@@ -60,12 +60,6 @@
     <t>臺北市北投區湖田段二小段 0021-0008 地號</t>
   </si>
   <si>
-    <t>土 地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
     <t>10000分之 101</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>全部</t>
   </si>
   <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
     <t>丁守中</t>
   </si>
   <si>
@@ -99,27 +90,18 @@
     <t>97.年07月 22日</t>
   </si>
   <si>
-    <t>變動時間</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>變動原因</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
     <t>(2970萬元）</t>
   </si>
   <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
     <t>建物標示</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
   </si>
   <si>
     <t>臺北市北投區振興段一小段 12891-000建號（（地下室停車 位））</t>
-  </si>
-  <si>
-    <t>建 物標示</t>
   </si>
   <si>
     <t>56分之1</t>
@@ -824,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,19 +843,19 @@
         <v>3971</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -890,19 +869,19 @@
         <v>973</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -916,19 +895,19 @@
         <v>3971</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -942,45 +921,19 @@
         <v>2975.21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -998,25 +951,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1034,34 +987,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1079,16 +1032,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1096,13 +1049,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
@@ -1113,13 +1066,13 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
@@ -1140,16 +1093,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1157,16 +1110,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1174,16 +1127,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1191,16 +1144,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1208,16 +1161,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1225,16 +1178,16 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1252,22 +1205,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1275,22 +1228,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>21113089</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1298,22 +1251,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2">
         <v>9650048</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1331,22 +1284,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1354,22 +1307,22 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1377,22 +1330,22 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>2940000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1422,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1436,25 +1389,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>193.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1462,25 +1415,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>2357.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1488,25 +1441,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>153.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1514,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>2357.46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1540,25 +1493,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>126.18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1566,51 +1519,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>1350.27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1628,19 +1555,19 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1667,13 +1594,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1690,19 +1617,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
@@ -1723,16 +1650,16 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1759,16 +1686,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1786,22 +1713,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1809,16 +1736,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1830,16 +1757,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1851,16 +1778,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1872,16 +1799,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1893,16 +1820,16 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1914,16 +1841,16 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <v>20468.96</v>
@@ -1937,16 +1864,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1958,16 +1885,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1979,16 +1906,16 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2000,16 +1927,16 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2021,16 +1948,16 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2042,16 +1969,16 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2063,16 +1990,16 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2094,22 +2021,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2117,10 +2044,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>1644599</v>
@@ -2129,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>16445990</v>
@@ -2140,10 +2067,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>70000</v>
@@ -2152,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>700000</v>
@@ -2163,10 +2090,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>50000</v>
@@ -2175,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
@@ -2186,10 +2113,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>240000</v>
@@ -2198,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
@@ -2209,10 +2136,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -2221,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
@@ -2232,10 +2159,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>250000</v>
@@ -2244,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>2500000</v>
@@ -2255,10 +2182,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>200000</v>
@@ -2267,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
@@ -2278,10 +2205,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>115000</v>
@@ -2290,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
@@ -2301,10 +2228,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>40000</v>
@@ -2313,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
@@ -2324,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>48000</v>
@@ -2336,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
@@ -2357,28 +2284,28 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
